--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/139.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/139.xlsx
@@ -479,13 +479,13 @@
         <v>-18.00164051537838</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.00041422416029</v>
+        <v>-9.636618405097249</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.096423982027199</v>
+        <v>-3.056518642965618</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.84594168517197</v>
+        <v>-6.396352005587096</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-17.61192815317836</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.29637882220035</v>
+        <v>-9.925054929003315</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.028344007250224</v>
+        <v>-3.026786023212058</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.818421664598661</v>
+        <v>-6.36322847939753</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-17.13311590540322</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.12036908615006</v>
+        <v>-10.74818110096547</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.823698221531203</v>
+        <v>-2.848769981473109</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.693730572334062</v>
+        <v>-6.248147137418758</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-16.59348952347908</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.84594450963852</v>
+        <v>-11.47709506167857</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.804387074839658</v>
+        <v>-2.803470613640737</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.942314126389915</v>
+        <v>-6.485144003459682</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-15.99088562437204</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.71131954287093</v>
+        <v>-12.32158787187843</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.593731922116285</v>
+        <v>-2.616695821300673</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.445801633420296</v>
+        <v>-6.004970704436538</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-15.32830577515023</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.39001142988317</v>
+        <v>-13.01058340122711</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.528296592513338</v>
+        <v>-2.559495550185172</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.530260079052271</v>
+        <v>-6.099261469502649</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-14.61679550957443</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.97086453775919</v>
+        <v>-13.56790964089654</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.438863071801507</v>
+        <v>-2.457323218808341</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.006685796108804</v>
+        <v>-5.598611808835043</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-13.86002978933692</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.97999305619375</v>
+        <v>-14.5724558533365</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.268362011893709</v>
+        <v>-2.262116983438206</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.792849213794891</v>
+        <v>-5.41229524709444</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-13.08180845546295</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.72406790359757</v>
+        <v>-15.32240914471625</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.233889978511444</v>
+        <v>-2.235866916240545</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.421237289935339</v>
+        <v>-5.040486938692261</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-12.29652498998412</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.43791262373984</v>
+        <v>-16.01683797974425</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.021742303264115</v>
+        <v>-2.029964269448719</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.186007884778046</v>
+        <v>-4.807483225018062</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-11.54582742564646</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.08993548986348</v>
+        <v>-16.6670148311672</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.167119234018641</v>
+        <v>-2.125957033884255</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.667932369028104</v>
+        <v>-4.278973143903265</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-10.8561355917992</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.06135817611387</v>
+        <v>-17.64777232934374</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.946212808170197</v>
+        <v>-1.917187172770091</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.983283484222881</v>
+        <v>-3.617366712099479</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-10.27657600849312</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.6505903578086</v>
+        <v>-18.24036923286879</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.693596824839093</v>
+        <v>-1.656074284894706</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.730562762469043</v>
+        <v>-3.332844786743089</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-9.828297460785489</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.58500110392543</v>
+        <v>-19.16255176813145</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.56000296664212</v>
+        <v>-1.515135644803525</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.138162243486622</v>
+        <v>-2.739056483659445</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-9.53741739676286</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.51424039041978</v>
+        <v>-20.07990324364551</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.385194539099394</v>
+        <v>-1.347829106789107</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.691060101441677</v>
+        <v>-2.323336591526117</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-9.398456643176287</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.30978108029442</v>
+        <v>-20.87713284058674</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.22345222979271</v>
+        <v>-1.161054314449043</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.212196032702704</v>
+        <v>-1.825685068209267</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-9.402847035412567</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.27210461606981</v>
+        <v>-21.83915525339677</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.115781131222354</v>
+        <v>-1.062181243388328</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.829023605433907</v>
+        <v>-1.458760188767052</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-9.520787235825749</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.11941227138064</v>
+        <v>-22.68261377167213</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.032278423697826</v>
+        <v>-0.9591971892353107</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.488597546943346</v>
+        <v>-1.103474366551132</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-9.722545855753825</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.8280462549919</v>
+        <v>-23.36574394934771</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.8279468532470069</v>
+        <v>-0.7381074711470826</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.153460778800842</v>
+        <v>-0.767957921626218</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-9.971787428003921</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.43644556804691</v>
+        <v>-23.97977295262467</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.5694786105456509</v>
+        <v>-0.4611921737417345</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.784257838664167</v>
+        <v>-0.4094906698197583</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-10.2345714842677</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.11992923789922</v>
+        <v>-24.64748039755269</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.4399171816239297</v>
+        <v>-0.297237265254799</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.556517230732342</v>
+        <v>-0.2448680538878947</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-10.47904697077845</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.5278199329332</v>
+        <v>-25.07586054653397</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.3826645412970616</v>
+        <v>-0.2297464441057011</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.3730024217998678</v>
+        <v>-0.04265743649743561</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-10.67412501743767</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.98866899296195</v>
+        <v>-25.50949070895478</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.4165997902628156</v>
+        <v>-0.2598456483388293</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.3275721309390783</v>
+        <v>-0.0207540138432279</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-10.79876790472643</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.23693833174961</v>
+        <v>-25.76595582932135</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.1070322895702027</v>
+        <v>0.04338517777838811</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.3110234601471366</v>
+        <v>-0.01608006172873169</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-10.83473758278504</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.2567338936463</v>
+        <v>-25.77176881178308</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.1530255494531864</v>
+        <v>0.01596989562781372</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.4794690285087841</v>
+        <v>-0.180048062518509</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-10.78412018609145</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.28932063541935</v>
+        <v>-25.77898267064887</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.3437934941599769</v>
+        <v>-0.1799695087014586</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.4438317801736058</v>
+        <v>-0.1565081020090855</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-10.65401086696233</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.32756325202003</v>
+        <v>-25.83444166548642</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.1230703605513171</v>
+        <v>0.008834590579073017</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.7499298206131613</v>
+        <v>-0.4529571152542889</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-10.47084539350903</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.43532599671028</v>
+        <v>-25.91947617244344</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.1829414614465304</v>
+        <v>-0.04718737328067283</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.8048520310342021</v>
+        <v>-0.5210109054255809</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-10.25769375726455</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.16279662075691</v>
+        <v>-25.67023800324549</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.2750719965437567</v>
+        <v>-0.1493073354461362</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9355524903031535</v>
+        <v>-0.6715462034997473</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-10.04677427709214</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.75253621890858</v>
+        <v>-25.23812654795433</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.284812669858001</v>
+        <v>-0.1586290550694451</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.459938496022808</v>
+        <v>-1.187919719880265</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-9.8583479982378</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.83668044927236</v>
+        <v>-25.30064229402357</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.1919882427101632</v>
+        <v>-0.0835316059693044</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.638412768361218</v>
+        <v>-1.337001772339</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-9.713701922648978</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.40744930060637</v>
+        <v>-24.88725283179607</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.2372221490283267</v>
+        <v>-0.133923879607108</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.143121042909757</v>
+        <v>-1.834666387958691</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-9.620652889097741</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.76457795416909</v>
+        <v>-24.26149312517293</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.2706206135775699</v>
+        <v>-0.1938735343193717</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.163073712440548</v>
+        <v>-1.875291803676567</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-9.588999854689451</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.40558701024896</v>
+        <v>-23.90855082516568</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.4718231236492161</v>
+        <v>-0.3937144448954784</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.315494302123923</v>
+        <v>-2.002064572093001</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-9.615007884211231</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.59967721652368</v>
+        <v>-23.12529071535657</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.5612959212695721</v>
+        <v>-0.4957951301524166</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.480090733450103</v>
+        <v>-2.176755168910152</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-9.695121491228972</v>
       </c>
       <c r="E37" t="n">
-        <v>-22.80316769623875</v>
+        <v>-22.33416213153959</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.5159572765286747</v>
+        <v>-0.4417239194160879</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.65065725487211</v>
+        <v>-2.33322128017162</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-9.812641926974019</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.43841613906826</v>
+        <v>-21.95282262666864</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.5693607798200754</v>
+        <v>-0.5009665897748984</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.926642998775696</v>
+        <v>-2.603538056944738</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-9.95557215459127</v>
       </c>
       <c r="E39" t="n">
-        <v>-21.77557903079735</v>
+        <v>-21.30062956060805</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.5225819817665881</v>
+        <v>-0.4282519397919518</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.11925695818317</v>
+        <v>-2.783072805813327</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-10.10472290675152</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.37678748623837</v>
+        <v>-20.91618717996361</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.6902551042605739</v>
+        <v>-0.6326227871512957</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.303557305286148</v>
+        <v>-2.980884409448967</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-10.2506018979478</v>
       </c>
       <c r="E41" t="n">
-        <v>-20.72899343393261</v>
+        <v>-20.30531342167151</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.4966854067456539</v>
+        <v>-0.4119782073596863</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.225671195680719</v>
+        <v>-2.88283615346728</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-10.37884951257205</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.239511507589</v>
+        <v>-19.7917023811906</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.2495550983052327</v>
+        <v>-0.1682388053552721</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.345531228196721</v>
+        <v>-2.968289614115226</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-10.48595691370939</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.31776101832012</v>
+        <v>-18.87882847324841</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.21995340158009</v>
+        <v>-0.1512057193581864</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.337008139046758</v>
+        <v>-2.936331302878573</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-10.56587319960094</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.98008434342632</v>
+        <v>-18.54950468756763</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.1680816977211713</v>
+        <v>-0.1030784141120014</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.575013112406496</v>
+        <v>-3.159869281598204</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-10.62479814524549</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.40281852652893</v>
+        <v>-17.99198206335556</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.1965050871905586</v>
+        <v>-0.1287786045903097</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.64603885532286</v>
+        <v>-3.223602611831726</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-10.66555360476367</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.93314525438485</v>
+        <v>-17.53388238692357</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.1190903004874324</v>
+        <v>-0.05766121555405369</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.445451683484774</v>
+        <v>-3.059398949590798</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-10.70175227457524</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.24043151102912</v>
+        <v>-16.85309573145666</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.1793934473764227</v>
+        <v>-0.102476168181282</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.831609155801485</v>
+        <v>-3.428261489853588</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-10.74345264653633</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.57653392622803</v>
+        <v>-16.19425177555248</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.1255709903940868</v>
+        <v>-0.0658569971329742</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.677159259177643</v>
+        <v>-3.303256182320788</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-10.80553901422548</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.91742812426702</v>
+        <v>-15.57285180577563</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.03899159170175231</v>
+        <v>0.0297168136116261</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.988101451668637</v>
+        <v>-3.582894678717215</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-10.8955780809352</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.18619682595094</v>
+        <v>-14.86406071453027</v>
       </c>
       <c r="F50" t="n">
-        <v>0.02209709335774152</v>
+        <v>0.1163485815153275</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.950133773427631</v>
+        <v>-3.539690079339519</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-11.01854405873559</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.36715545247539</v>
+        <v>-14.0476770785316</v>
       </c>
       <c r="F51" t="n">
-        <v>0.05625491147180484</v>
+        <v>0.1441697250539954</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.137589365515465</v>
+        <v>-3.693642468455375</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-11.17506104300411</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.78885534365351</v>
+        <v>-13.46099789589101</v>
       </c>
       <c r="F52" t="n">
-        <v>0.121389118109392</v>
+        <v>0.2115689000832012</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.020295424356441</v>
+        <v>-3.62700264699099</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-11.36018499142721</v>
       </c>
       <c r="E53" t="n">
-        <v>-13.10607865815466</v>
+        <v>-12.80088398661118</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1985944279670507</v>
+        <v>0.2786145829356804</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.082156555283596</v>
+        <v>-3.676111874950304</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-11.57032606130646</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.71770858665769</v>
+        <v>-12.41841854369584</v>
       </c>
       <c r="F54" t="n">
-        <v>0.04918506793727276</v>
+        <v>0.1524178758442828</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.296713214253804</v>
+        <v>-3.858579299655441</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-11.79658019089832</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.10237035309657</v>
+        <v>-11.85424502964018</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.08948860376228976</v>
+        <v>-0.02085875226596171</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.698136311683967</v>
+        <v>-4.288150848195315</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-12.03831821459775</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.67202635868903</v>
+        <v>-11.42651949580099</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.116144532348044</v>
+        <v>-0.0182926609089834</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.827200233097702</v>
+        <v>-4.3969609771129</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-12.28633942061564</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.89316526263475</v>
+        <v>-10.65307861312318</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.1577780553847329</v>
+        <v>-0.06806959631322591</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.262584764099302</v>
+        <v>-4.805637210317379</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-12.54229443883543</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.63778680340404</v>
+        <v>-10.39241086354441</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.3201749798335031</v>
+        <v>-0.2358736418356289</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.260987503152612</v>
+        <v>-4.823560572907702</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-12.79517142435067</v>
       </c>
       <c r="E59" t="n">
-        <v>-10.01413495753842</v>
+        <v>-9.787991610553284</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.2737103970482173</v>
+        <v>-0.180571754632178</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.576616740060944</v>
+        <v>-5.127930429372149</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-13.04670861681872</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.707971455584655</v>
+        <v>-9.454556841780205</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.3726358373202994</v>
+        <v>-0.2867634229814182</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.443114527983863</v>
+        <v>-5.011435118686471</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-13.28269384196286</v>
       </c>
       <c r="E61" t="n">
-        <v>-9.133297914649932</v>
+        <v>-8.896157033277747</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.3980218125304063</v>
+        <v>-0.3134062592643307</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.812972083262625</v>
+        <v>-5.384591934281348</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-13.50236766693544</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.656908291148044</v>
+        <v>-8.419165163845141</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.3467392622993652</v>
+        <v>-0.2667321996335772</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.848124916392659</v>
+        <v>-5.407856956431095</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-13.69109118298484</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.207096042414863</v>
+        <v>-7.970020622556887</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.358797273216595</v>
+        <v>-0.2838176548420298</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.829677861688667</v>
+        <v>-5.390378732137391</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-13.84788665445867</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.861969847204121</v>
+        <v>-7.616633184253017</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.5062296955172723</v>
+        <v>-0.4369714134845413</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.998961337432185</v>
+        <v>-5.571288172804361</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-13.96094351413682</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.508516947386043</v>
+        <v>-7.264921560712887</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.4243504335451174</v>
+        <v>-0.3667050241329975</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.23216143564901</v>
+        <v>-5.825645432413416</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-14.03127272550084</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.25235294998483</v>
+        <v>-7.012881638706819</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.5488844181756157</v>
+        <v>-0.4836978423266617</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.173390088192502</v>
+        <v>-5.782611032972662</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-14.05360739159814</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.085570104084081</v>
+        <v>-6.846334454257222</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.6466708281004677</v>
+        <v>-0.5804237757213339</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.257756887704584</v>
+        <v>-5.872031461381651</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-14.03575340222715</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.800694686550965</v>
+        <v>-6.5662900964727</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.6007168451260093</v>
+        <v>-0.5267191494645735</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.207979952300342</v>
+        <v>-5.840636119167192</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-13.97946468086432</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.700171985332192</v>
+        <v>-6.450829077711519</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.9038298405176513</v>
+        <v>-0.8199212716050288</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.221857793312571</v>
+        <v>-5.870067615955392</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-13.89752562999209</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.51538722302407</v>
+        <v>-6.260689563541131</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.7954517575938428</v>
+        <v>-0.7298331357511118</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.044522551321392</v>
+        <v>-5.704214323556406</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-13.79481743847625</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.446390787048173</v>
+        <v>-6.175916902640955</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.8694363609524368</v>
+        <v>-0.799025956269634</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.940936251237655</v>
+        <v>-5.614597510604791</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-13.68464131264335</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.466107795127813</v>
+        <v>-6.184439991790918</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.007075740727503</v>
+        <v>-0.9274745394498085</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.730817882930793</v>
+        <v>-5.433753531452029</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-13.57048323038011</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.523556819997307</v>
+        <v>-6.240396494136456</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.068138241181313</v>
+        <v>-0.9815195655804537</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.567046266683642</v>
+        <v>-5.259508072931497</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-13.4646495794927</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.741478200797838</v>
+        <v>-6.457427598343749</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.9461834402106351</v>
+        <v>-0.8607037949570056</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.409454217377785</v>
+        <v>-5.113738373091719</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-13.36794584280106</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.908601446572471</v>
+        <v>-6.633283410113814</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.300002924508282</v>
+        <v>-1.203303175719293</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.241388325798548</v>
+        <v>-4.945135697095971</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-13.28928788599489</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.372514105466192</v>
+        <v>-7.105143096832462</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.239202270111306</v>
+        <v>-1.13683355419185</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.992556017988703</v>
+        <v>-4.722527271878102</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-13.22435874940716</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.786479629018729</v>
+        <v>-7.539061289915789</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.312492981419289</v>
+        <v>-1.202085591555013</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.939021591668884</v>
+        <v>-4.655088819940371</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-13.17950429657095</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.386499868255035</v>
+        <v>-8.14040385173911</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.35421815057587</v>
+        <v>-1.257387478758464</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.590884166804546</v>
+        <v>-4.289879032170423</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-13.14729558797047</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.795791439693074</v>
+        <v>-8.552536452893804</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.386359754052307</v>
+        <v>-1.268921797562024</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.457395047030308</v>
+        <v>-4.14734313113255</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-13.13194096091778</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.236347430317156</v>
+        <v>-9.002531993866771</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.486659886122771</v>
+        <v>-1.391374106040688</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.107149761408452</v>
+        <v>-3.791690724437062</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-13.12314465745238</v>
       </c>
       <c r="E81" t="n">
-        <v>-10.11413396664352</v>
+        <v>-9.893266817703605</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.483347533503814</v>
+        <v>-1.369130283512596</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.122467755733271</v>
+        <v>-3.795971907466307</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-13.12169806417843</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.8481539254649</v>
+        <v>-10.65065653709746</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.571262347086005</v>
+        <v>-1.452331868071765</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.911328187804755</v>
+        <v>-3.59332924408207</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-13.11691033328298</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.62604619110889</v>
+        <v>-11.44298961277588</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.708757711529812</v>
+        <v>-1.585467495669277</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.591849813860955</v>
+        <v>-3.261112059473271</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-13.10817812807271</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.82386097809841</v>
+        <v>-12.62823578903734</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.77412757961855</v>
+        <v>-1.653337993600785</v>
       </c>
       <c r="G84" t="n">
-        <v>-3.44526839124499</v>
+        <v>-3.115643482598853</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-13.08970032861981</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.6910820260315</v>
+        <v>-13.51056535444978</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.828002405812253</v>
+        <v>-1.720566968693048</v>
       </c>
       <c r="G85" t="n">
-        <v>-3.110720776730364</v>
+        <v>-2.78498428202822</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-13.06266276740588</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.78977498820631</v>
+        <v>-14.63584878369614</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.013350137142568</v>
+        <v>-1.907315576427429</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.861967022737569</v>
+        <v>-2.529880761157187</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-13.0261091702503</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.83532629314656</v>
+        <v>-15.69480660674631</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.043174403016021</v>
+        <v>-1.938174134225378</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.424959046183595</v>
+        <v>-2.102430165677673</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-12.98148144065927</v>
       </c>
       <c r="E88" t="n">
-        <v>-17.22356862496898</v>
+        <v>-17.09045918197715</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.967893661676096</v>
+        <v>-1.89101565938948</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.166490803482239</v>
+        <v>-1.824742422404663</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-12.9313582718516</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.8340527975297</v>
+        <v>-18.72170774684485</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.194495239260691</v>
+        <v>-2.110625947256593</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.984952932278865</v>
+        <v>-1.645312411958807</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-12.87681661041514</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.40515532314252</v>
+        <v>-20.30218436129234</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.396129795326114</v>
+        <v>-2.326360913482556</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.70646655853251</v>
+        <v>-1.36301617808551</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-12.82065495396046</v>
       </c>
       <c r="E91" t="n">
-        <v>-22.0661757846723</v>
+        <v>-22.01376729639687</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.537696865953698</v>
+        <v>-2.490695498751901</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.843438230862648</v>
+        <v>-1.502580126378309</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-12.75813163387657</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.69735888802579</v>
+        <v>-23.66807140656885</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.656627344967937</v>
+        <v>-2.59695262861535</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.641986967037009</v>
+        <v>-1.302647569682311</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-12.68913113346633</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.7975344637756</v>
+        <v>-25.77180808869161</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.749229202967466</v>
+        <v>-2.714770261888042</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.612555470248809</v>
+        <v>-1.275572687405621</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-12.60450648295167</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.00295906207004</v>
+        <v>-27.98991912843968</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.589869692777976</v>
+        <v>-2.565360901858265</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.691947194681035</v>
+        <v>-1.375807357961876</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-12.50444634188366</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.25365684359117</v>
+        <v>-30.25614438113109</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.019794733494577</v>
+        <v>-3.008024753239865</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.057589028444761</v>
+        <v>-1.729875596013516</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-12.3819110523773</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.48692877002996</v>
+        <v>-32.48383898655931</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.009085229770045</v>
+        <v>-3.029496129900296</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.322930730138023</v>
+        <v>-1.986798946979548</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-12.24058327838318</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.73415709129803</v>
+        <v>-34.72123498839324</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.267121426477624</v>
+        <v>-3.313245609389025</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.489792129855822</v>
+        <v>-2.170693432694432</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-12.08071668554637</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.23088542782087</v>
+        <v>-37.22651259867173</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.519148256180851</v>
+        <v>-3.562902732277899</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.953010896698932</v>
+        <v>-2.61500691423409</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-11.91424794164112</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.66048952767419</v>
+        <v>-39.69181940837444</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.458818924686177</v>
+        <v>-3.49479657289524</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.43851276297866</v>
+        <v>-3.091252522404718</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-11.75140724766673</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.2303776524766</v>
+        <v>-42.26114456415466</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.636756412608076</v>
+        <v>-3.673218476022283</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.711997877039475</v>
+        <v>-3.387413504987403</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-11.60993988208494</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.53049887722524</v>
+        <v>-44.55608123697797</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.835445200534111</v>
+        <v>-3.880338706978389</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.208876954488663</v>
+        <v>-3.916041416827776</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-11.50837471004335</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.85048112538478</v>
+        <v>-46.87374614753453</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.956693017151336</v>
+        <v>-4.010908243218924</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.515511779344729</v>
+        <v>-4.219992319601289</v>
       </c>
     </row>
   </sheetData>
